--- a/results/rbf_m/scores_rbf_m.xlsx
+++ b/results/rbf_m/scores_rbf_m.xlsx
@@ -408,10 +408,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6329</v>
+        <v>0.5969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7824</v>
+        <v>0.7368</v>
       </c>
       <c r="F2" t="n">
         <v>0.8008999999999999</v>
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6387</v>
+        <v>0.5978</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7725</v>
+        <v>0.7382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7899</v>
+        <v>0.7995</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0365</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0424</v>
+        <v>0.0493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0287</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="5">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6135</v>
+        <v>0.65</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7625</v>
+        <v>0.762</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7795</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6052</v>
+        <v>0.6515</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7544999999999999</v>
+        <v>0.7624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7708</v>
+        <v>0.8154</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.038</v>
+        <v>0.0598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0452</v>
+        <v>0.0424</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0303</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="8">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19.5845</v>
+        <v>174.6235</v>
       </c>
       <c r="E8" t="n">
-        <v>5.692</v>
+        <v>13.5133</v>
       </c>
       <c r="F8" t="n">
-        <v>32.0941</v>
+        <v>69.4682</v>
       </c>
     </row>
     <row r="9">
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.2613</v>
+        <v>1.0085</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0988</v>
+        <v>2.7041</v>
       </c>
       <c r="F9" t="n">
-        <v>1.2615</v>
+        <v>3.2469</v>
       </c>
     </row>
   </sheetData>

--- a/results/rbf_m/scores_rbf_m.xlsx
+++ b/results/rbf_m/scores_rbf_m.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,7 +414,7 @@
         <v>0.7368</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8008999999999999</v>
+        <v>0.7696</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>0.7382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7995</v>
+        <v>0.7675999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +462,7 @@
         <v>0.0493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0335</v>
+        <v>0.0499</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.65</v>
+        <v>0.4391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.762</v>
+        <v>0.5831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.6304</v>
       </c>
     </row>
     <row r="6">
@@ -495,22 +495,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6515</v>
+        <v>0.8384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7624</v>
+        <v>0.8362000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8154</v>
+        <v>0.8848</v>
       </c>
     </row>
     <row r="7">
@@ -519,22 +519,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0598</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0424</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0297</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -543,22 +549,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>training time</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>median</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>174.6235</v>
+        <v>0.65</v>
       </c>
       <c r="E8" t="n">
-        <v>13.5133</v>
+        <v>0.762</v>
       </c>
       <c r="F8" t="n">
-        <v>69.4682</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="9">
@@ -567,22 +573,322 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6515</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7624</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7897999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0598</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0438</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.674</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2926</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5201</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5810999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2925</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5206</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5759</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1205</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.0225</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2572</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3394</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6839</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6946</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7759</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training time</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>165.0499</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15.1476</v>
+      </c>
+      <c r="F20" t="n">
+        <v>66.96939999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>prediction time</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1.0085</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.7041</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.2469</v>
+      <c r="D21" t="n">
+        <v>1.1702</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.0747</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.5262</v>
       </c>
     </row>
   </sheetData>

--- a/results/rbf_m/scores_rbf_m.xlsx
+++ b/results/rbf_m/scores_rbf_m.xlsx
@@ -408,7 +408,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5969</v>
+        <v>0.645</v>
       </c>
       <c r="E2" t="n">
         <v>0.7368</v>
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5978</v>
+        <v>0.6385</v>
       </c>
       <c r="E3" t="n">
         <v>0.7382</v>
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0709</v>
       </c>
       <c r="E4" t="n">
         <v>0.0493</v>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4391</v>
+        <v>0.4444</v>
       </c>
       <c r="E5" t="n">
         <v>0.5831</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8384</v>
+        <v>0.8242</v>
       </c>
       <c r="E6" t="n">
         <v>0.8362000000000001</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.65</v>
+        <v>0.672</v>
       </c>
       <c r="E8" t="n">
         <v>0.762</v>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6515</v>
+        <v>0.6749000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>0.7624</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0598</v>
+        <v>0.0599</v>
       </c>
       <c r="E10" t="n">
         <v>0.0424</v>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.492</v>
+        <v>0.52</v>
       </c>
       <c r="E11" t="n">
         <v>0.634</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.842</v>
+        <v>0.826</v>
       </c>
       <c r="E12" t="n">
         <v>0.848</v>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2926</v>
+        <v>0.3379</v>
       </c>
       <c r="E14" t="n">
         <v>0.5201</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2925</v>
+        <v>0.3435</v>
       </c>
       <c r="E15" t="n">
         <v>0.5206</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1205</v>
+        <v>0.1206</v>
       </c>
       <c r="E16" t="n">
         <v>0.0858</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.0225</v>
+        <v>0.0326</v>
       </c>
       <c r="E17" t="n">
         <v>0.2572</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6839</v>
+        <v>0.6521</v>
       </c>
       <c r="E18" t="n">
         <v>0.6946</v>
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>165.0499</v>
+        <v>149.2145</v>
       </c>
       <c r="E20" t="n">
-        <v>15.1476</v>
+        <v>13.507</v>
       </c>
       <c r="F20" t="n">
-        <v>66.96939999999999</v>
+        <v>60.8824</v>
       </c>
     </row>
     <row r="21">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.1702</v>
+        <v>1.2298</v>
       </c>
       <c r="E21" t="n">
-        <v>3.0747</v>
+        <v>2.7186</v>
       </c>
       <c r="F21" t="n">
-        <v>3.5262</v>
+        <v>3.2872</v>
       </c>
     </row>
   </sheetData>
